--- a/res/testcase/system/miniprogram_user.xlsx
+++ b/res/testcase/system/miniprogram_user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -454,9 +454,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1787,8 +1787,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2286,8 +2286,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/system/miniprogram_user.xlsx
+++ b/res/testcase/system/miniprogram_user.xlsx
@@ -319,10 +319,10 @@
     <t>8</t>
   </si>
   <si>
-    <t>选择收费员类型</t>
-  </si>
-  <si>
-    <t>MiniProgramUserManagePage.收费类型</t>
+    <t>选择帐号类型</t>
+  </si>
+  <si>
+    <t>MiniProgramUserManagePage.帐号类型</t>
   </si>
   <si>
     <t>管理员</t>
@@ -454,9 +454,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1788,7 +1788,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2031,7 +2031,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/system/miniprogram_user.xlsx
+++ b/res/testcase/system/miniprogram_user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10950" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
     <t>MiniProgramUserManagePage.选中权限</t>
   </si>
   <si>
-    <t>测试云停车场;on</t>
+    <t>$全局变量.云停车场;on</t>
   </si>
   <si>
     <t>3设置权限界面</t>
@@ -453,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -475,7 +475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,7 +483,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,6 +499,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,70 +527,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,10 +548,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,6 +593,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -633,7 +633,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,25 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,19 +687,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,25 +753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,13 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,61 +789,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,60 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -911,7 +857,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,8 +880,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,10 +947,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,133 +959,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1184,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1787,8 +1787,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2031,7 +2031,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2965,8 +2965,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
